--- a/Cene digitalne stampe.xlsx
+++ b/Cene digitalne stampe.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danilo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\PressCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0C04AC61-6A82-47A1-ACA2-BFF283E51408}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="27795" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="27795" windowHeight="12330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1155,7 +1156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;Din.&quot;"/>
   </numFmts>
@@ -1241,8 +1242,36 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{5C0069CD-7EA5-4310-8DE1-7A83995A596C}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1269,7 +1298,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2464,19 +2492,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>73819</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>83343</xdr:rowOff>
+      <xdr:colOff>54769</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>111918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>111919</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>111918</xdr:rowOff>
+      <xdr:colOff>92869</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>140493</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2570,6 +2604,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2605,6 +2656,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2780,25 +2848,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="26.3984375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="5" customWidth="1"/>
     <col min="3" max="3" width="15" style="7" customWidth="1"/>
-    <col min="4" max="4" width="71.86328125" customWidth="1"/>
-    <col min="5" max="5" width="32.86328125" customWidth="1"/>
-    <col min="6" max="7" width="29.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.85546875" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" customWidth="1"/>
+    <col min="6" max="7" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2813,7 +2881,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2828,7 +2896,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2843,7 +2911,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2858,7 +2926,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2872,13 +2940,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2889,7 +2957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2900,7 +2968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2911,7 +2979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -2924,10 +2992,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1" tooltip="Izmeni" display="http://192.168.1.30/pricelist/edit/catalogItemId/48/clientId/0"/>
-    <hyperlink ref="E2" r:id="rId2" tooltip="Izmeni" display="http://192.168.1.30/pricelist/edit/catalogItemId/49/clientId/0"/>
-    <hyperlink ref="E3" r:id="rId3" tooltip="Izmeni" display="http://192.168.1.30/pricelist/edit/catalogItemId/50/clientId/0"/>
-    <hyperlink ref="E4" r:id="rId4" tooltip="Izmeni" display="http://192.168.1.30/pricelist/edit/catalogItemId/51/clientId/0"/>
+    <hyperlink ref="E1" r:id="rId1" tooltip="Izmeni" display="http://192.168.1.30/pricelist/edit/catalogItemId/48/clientId/0" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId2" tooltip="Izmeni" display="http://192.168.1.30/pricelist/edit/catalogItemId/49/clientId/0" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E3" r:id="rId3" tooltip="Izmeni" display="http://192.168.1.30/pricelist/edit/catalogItemId/50/clientId/0" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E4" r:id="rId4" tooltip="Izmeni" display="http://192.168.1.30/pricelist/edit/catalogItemId/51/clientId/0" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -2935,16 +3003,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
@@ -2955,7 +3023,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -2966,7 +3034,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
@@ -2989,7 +3057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -3012,7 +3080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -3035,7 +3103,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -3058,7 +3126,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -3081,7 +3149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
@@ -3104,7 +3172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -3115,7 +3183,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>14</v>
       </c>
@@ -3126,7 +3194,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -3149,7 +3217,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
@@ -3172,7 +3240,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>8</v>
       </c>
@@ -3195,7 +3263,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>9</v>
       </c>
@@ -3218,7 +3286,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>5</v>
       </c>
@@ -3241,7 +3309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>10</v>
       </c>
@@ -3278,12 +3346,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
